--- a/РАБОЧИЙ СТОЛ/26,08,25 на 01,09,25 НФ/заказ НФ 26,08,25 на 01,09,25.xlsx
+++ b/РАБОЧИЙ СТОЛ/26,08,25 на 01,09,25 НФ/заказ НФ 26,08,25 на 01,09,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\26,08,25 на 01,09,25 НФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8220C-2A4F-47E1-8273-450813FC8EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E336366-0427-4E4B-A00D-F2A7AA1C507F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,19 +714,21 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1000</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="11"/>
       <c r="F3" s="5">
         <f>C3+D3+E3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="K3">
         <f>F3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,12 +738,14 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>1500</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
       <c r="F4" s="9">
         <f>C4+D4+E4</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -751,13 +755,13 @@
       </c>
       <c r="K4">
         <f>F4*J4</f>
-        <v>0</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K5" s="13">
         <f>SUM(K3:K4)</f>
-        <v>0</v>
+        <v>1570</v>
       </c>
     </row>
   </sheetData>
